--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43173,6 +43173,41 @@
         <v>10500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>8800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43208,6 +43208,41 @@
         <v>8800</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43243,6 +43243,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>44600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43278,6 +43278,41 @@
         <v>44600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>56300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43313,6 +43313,41 @@
         <v>56300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>118700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43348,6 +43348,41 @@
         <v>118700</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>81100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43383,6 +43383,41 @@
         <v>81100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>30200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43418,6 +43418,41 @@
         <v>30200</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>76900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43453,6 +43453,43 @@
         <v>76900</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43490,6 +43490,41 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>28000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43525,6 +43525,41 @@
         <v>28000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>38000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43560,6 +43560,41 @@
         <v>38000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>47200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43595,6 +43595,76 @@
         <v>47200</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>133700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43665,6 +43665,76 @@
         <v>133700</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>120700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43735,6 +43735,41 @@
         <v>120700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43770,6 +43770,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>19600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43805,6 +43805,41 @@
         <v>19600</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>37000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43840,6 +43840,41 @@
         <v>37000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>429300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43875,6 +43875,76 @@
         <v>429300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>46500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43945,6 +43945,41 @@
         <v>46500</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>50800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43980,6 +43980,41 @@
         <v>50800</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>182400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2570"/>
+  <dimension ref="A1:I2571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90530,6 +90530,41 @@
         <v>182400</v>
       </c>
     </row>
+    <row r="2571">
+      <c r="A2571" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2571" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2571" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D2571" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E2571" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F2571" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G2571" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H2571" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I2571" t="n">
+        <v>77300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2571"/>
+  <dimension ref="A1:I2572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90565,6 +90565,41 @@
         <v>77300</v>
       </c>
     </row>
+    <row r="2572">
+      <c r="A2572" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2572" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2572" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D2572" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E2572" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F2572" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G2572" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H2572" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I2572" t="n">
+        <v>21500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2572"/>
+  <dimension ref="A1:I2573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90600,6 +90600,41 @@
         <v>21500</v>
       </c>
     </row>
+    <row r="2573">
+      <c r="A2573" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2573" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2573" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D2573" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E2573" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F2573" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G2573" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2573" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2573" t="n">
+        <v>84200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2573"/>
+  <dimension ref="A1:I2574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90635,6 +90635,41 @@
         <v>84200</v>
       </c>
     </row>
+    <row r="2574">
+      <c r="A2574" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2574" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2574" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D2574" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E2574" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2574" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G2574" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H2574" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2574" t="n">
+        <v>71600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2574"/>
+  <dimension ref="A1:I2575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90670,6 +90670,41 @@
         <v>71600</v>
       </c>
     </row>
+    <row r="2575">
+      <c r="A2575" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2575" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2575" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D2575" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E2575" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2575" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2575" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2575" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2575" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2575"/>
+  <dimension ref="A1:I2576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90705,6 +90705,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2576">
+      <c r="A2576" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2576" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2576" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D2576" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E2576" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2576" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2576" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H2576" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I2576" t="n">
+        <v>36500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2576"/>
+  <dimension ref="A1:I2577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90740,6 +90740,41 @@
         <v>36500</v>
       </c>
     </row>
+    <row r="2577">
+      <c r="A2577" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2577" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2577" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D2577" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E2577" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F2577" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G2577" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H2577" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I2577" t="n">
+        <v>23200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2577"/>
+  <dimension ref="A1:I2578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90775,6 +90775,41 @@
         <v>23200</v>
       </c>
     </row>
+    <row r="2578">
+      <c r="A2578" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2578" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2578" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D2578" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E2578" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2578" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2578" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2578" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2578" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2578"/>
+  <dimension ref="A1:I2579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90810,6 +90810,41 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="2579">
+      <c r="A2579" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2579" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2579" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D2579" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E2579" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F2579" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G2579" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H2579" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I2579" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2579"/>
+  <dimension ref="A1:I2580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90845,6 +90845,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2580">
+      <c r="A2580" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2580" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2580" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D2580" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E2580" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F2580" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2580" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H2580" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2580" t="n">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2580"/>
+  <dimension ref="A1:I2581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90880,6 +90880,41 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="2581">
+      <c r="A2581" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2581" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2581" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D2581" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E2581" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F2581" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G2581" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H2581" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I2581" t="n">
+        <v>2600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2581"/>
+  <dimension ref="A1:I2582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90915,6 +90915,41 @@
         <v>2600</v>
       </c>
     </row>
+    <row r="2582">
+      <c r="A2582" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2582" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2582" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D2582" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E2582" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2582" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2582" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2582" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2582" t="n">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2582"/>
+  <dimension ref="A1:I2583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90950,6 +90950,41 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="2583">
+      <c r="A2583" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2583" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2583" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D2583" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E2583" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2583" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2583" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H2583" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I2583" t="n">
+        <v>14400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2583"/>
+  <dimension ref="A1:I2584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90985,6 +90985,41 @@
         <v>14400</v>
       </c>
     </row>
+    <row r="2584">
+      <c r="A2584" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2584" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2584" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D2584" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E2584" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="F2584" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G2584" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="H2584" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I2584" t="n">
+        <v>3500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7091.xlsx
+++ b/data/7091.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2584"/>
+  <dimension ref="A1:I2585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91020,6 +91020,43 @@
         <v>3500</v>
       </c>
     </row>
+    <row r="2585">
+      <c r="A2585" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2585" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2585" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="D2585" t="inlineStr">
+        <is>
+          <t>UNIMECH</t>
+        </is>
+      </c>
+      <c r="E2585" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F2585" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G2585" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H2585" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="I2585" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
